--- a/server/tools/text.xlsx
+++ b/server/tools/text.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-460" windowWidth="38400" windowHeight="22460" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="-460" windowWidth="38400" windowHeight="22460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="life" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="186">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,21 +52,6 @@
     <t>امسح العناصر ذات نفس اللون</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Buy</t>
-  </si>
-  <si>
     <t>No special moves</t>
   </si>
   <si>
@@ -130,10 +115,6 @@
     <t>Wait! I can teach skills if you pay me.</t>
   </si>
   <si>
-    <t>Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正东</t>
   </si>
   <si>
@@ -267,6 +248,348 @@
   </si>
   <si>
     <t>喝杯奶茶</t>
+  </si>
+  <si>
+    <t>给喜欢的人发个微信</t>
+  </si>
+  <si>
+    <t>下载一个游戏</t>
+  </si>
+  <si>
+    <t>送同事一个奶茶</t>
+  </si>
+  <si>
+    <t>吃个桃子</t>
+  </si>
+  <si>
+    <t>吃个苦咖啡</t>
+  </si>
+  <si>
+    <t>吃个随便</t>
+  </si>
+  <si>
+    <t>吃个麦旋风</t>
+  </si>
+  <si>
+    <t>买双新袜子</t>
+  </si>
+  <si>
+    <t>吃个梦龙</t>
+  </si>
+  <si>
+    <t>看次天下足球</t>
+  </si>
+  <si>
+    <t>发个微博</t>
+  </si>
+  <si>
+    <t>发个朋友圈</t>
+  </si>
+  <si>
+    <t>走1000步</t>
+  </si>
+  <si>
+    <t>走10000步</t>
+  </si>
+  <si>
+    <t>跑200米</t>
+  </si>
+  <si>
+    <t>吃次面条</t>
+  </si>
+  <si>
+    <t>约异性周末出去</t>
+  </si>
+  <si>
+    <t>听首rap歌曲</t>
+  </si>
+  <si>
+    <t>听首摇滚歌曲</t>
+  </si>
+  <si>
+    <t>听首快歌</t>
+  </si>
+  <si>
+    <t>听首慢歌</t>
+  </si>
+  <si>
+    <t>打开书看一会</t>
+  </si>
+  <si>
+    <t>吃过晚饭散散步</t>
+  </si>
+  <si>
+    <t>晚上11点睡觉</t>
+  </si>
+  <si>
+    <t>喝碗粥</t>
+  </si>
+  <si>
+    <t>吃颗糖</t>
+  </si>
+  <si>
+    <t>走2000步</t>
+  </si>
+  <si>
+    <t>吃顿好的</t>
+  </si>
+  <si>
+    <t>吃个鸡吧</t>
+  </si>
+  <si>
+    <t>给母亲打个电话</t>
+  </si>
+  <si>
+    <t>给父亲打个电话</t>
+  </si>
+  <si>
+    <t>给心里惦记的人打个电话</t>
+  </si>
+  <si>
+    <t>早点回家</t>
+  </si>
+  <si>
+    <t>吃顿素食</t>
+  </si>
+  <si>
+    <t>转钱给你爱的人，能免灾哦</t>
+  </si>
+  <si>
+    <t>奖金遥不可及啊</t>
+  </si>
+  <si>
+    <t>涨工资是不可能的了</t>
+  </si>
+  <si>
+    <t>花小钱能获得更多幸福感</t>
+  </si>
+  <si>
+    <t>眼睛睁大点，不然钱会跑</t>
+  </si>
+  <si>
+    <t>钱这东西，花了就花了</t>
+  </si>
+  <si>
+    <t>一根口红算什么</t>
+  </si>
+  <si>
+    <t>鞋鞋鞋</t>
+  </si>
+  <si>
+    <t>今日收入靠老妈了</t>
+  </si>
+  <si>
+    <t>总有人想要谋害你的钱包</t>
+  </si>
+  <si>
+    <t>银行卡感觉又变薄了</t>
+  </si>
+  <si>
+    <t>银行卡可真好看</t>
+  </si>
+  <si>
+    <t>垂涎三尺不如工资到账</t>
+  </si>
+  <si>
+    <t>如果可以，少花点</t>
+  </si>
+  <si>
+    <t>口袋里的钱和吃饭一样，漏！</t>
+  </si>
+  <si>
+    <t>买了个小东西</t>
+  </si>
+  <si>
+    <t>快乐的花钱，又要长胖</t>
+  </si>
+  <si>
+    <t>钱变成了肚子上的肥肉</t>
+  </si>
+  <si>
+    <t>今天的饭可能很贵哦</t>
+  </si>
+  <si>
+    <t>钱算什么，吃好才行</t>
+  </si>
+  <si>
+    <t>趁天亮，赶紧花</t>
+  </si>
+  <si>
+    <t>爱就像钱，没了就没了</t>
+  </si>
+  <si>
+    <t>如果可以重来，把钱换个地方放</t>
+  </si>
+  <si>
+    <t>祈福</t>
+  </si>
+  <si>
+    <t>嫁娶</t>
+  </si>
+  <si>
+    <t>安床</t>
+  </si>
+  <si>
+    <t>作灶</t>
+  </si>
+  <si>
+    <t>祭祀</t>
+  </si>
+  <si>
+    <t>求嗣</t>
+  </si>
+  <si>
+    <t>求财</t>
+  </si>
+  <si>
+    <t>栽种</t>
+  </si>
+  <si>
+    <t>捕捉</t>
+  </si>
+  <si>
+    <t>开仓</t>
+  </si>
+  <si>
+    <t>盖屋</t>
+  </si>
+  <si>
+    <t>纳畜</t>
+  </si>
+  <si>
+    <t>出行</t>
+  </si>
+  <si>
+    <t>你并不是一无所有，至少还有病</t>
+  </si>
+  <si>
+    <t>神农尝百草…最后还是发现肉好吃</t>
+  </si>
+  <si>
+    <t>在家靠父母    出门靠父母打钱</t>
+  </si>
+  <si>
+    <t>千万别让生活，把你给办了</t>
+  </si>
+  <si>
+    <t>叫你一声loser，你敢答应吗</t>
+  </si>
+  <si>
+    <t>相信我，让无聊的人生，性感起来</t>
+  </si>
+  <si>
+    <t>情不知所起，一往而深.. 再而衰，三而竭</t>
+  </si>
+  <si>
+    <t>时间就像乳沟只要一躺下就没了</t>
+  </si>
+  <si>
+    <t>人与人之间的智商差是无法逾越的</t>
+  </si>
+  <si>
+    <t>干柴遇烈火发出了啪啪啪的声音</t>
+  </si>
+  <si>
+    <t>当你仰望星辰，请将其中一颗当成我的灵魂</t>
+  </si>
+  <si>
+    <t>爱情，要么让人成熟，要么让人堕落。</t>
+  </si>
+  <si>
+    <t>曾经拥有的，不要忘记</t>
+  </si>
+  <si>
+    <t>世界上总有一半人不理解另一半人的快乐</t>
+  </si>
+  <si>
+    <t>爱情这东西，时间很关键，认识得太早或太晚，都不行</t>
+  </si>
+  <si>
+    <t>如果你不出去走走，你就会以为这就是世界</t>
+  </si>
+  <si>
+    <t>好女人和好男人一样，总是在别人身旁</t>
+  </si>
+  <si>
+    <t>努力工作不会导致死亡！不过不要用自己去证明</t>
+  </si>
+  <si>
+    <t>曾经发生过的事情不可能忘记，只不过是想不起而已</t>
+  </si>
+  <si>
+    <t>在放手之前，想要抓多紧，就抓多紧</t>
+  </si>
+  <si>
+    <t>不要指望它</t>
+  </si>
+  <si>
+    <t>你在开玩笑吗</t>
+  </si>
+  <si>
+    <t>采取一个大胆的态度</t>
+  </si>
+  <si>
+    <t>你会忘记它</t>
+  </si>
+  <si>
+    <t>温柔的坚持就会胜利</t>
+  </si>
+  <si>
+    <t>一笑而过</t>
+  </si>
+  <si>
+    <t>分居</t>
+  </si>
+  <si>
+    <t>入宅</t>
+  </si>
+  <si>
+    <t>出货</t>
+  </si>
+  <si>
+    <t>纳财</t>
+  </si>
+  <si>
+    <t>交易</t>
+  </si>
+  <si>
+    <t>开市</t>
+  </si>
+  <si>
+    <t>纳采</t>
+  </si>
+  <si>
+    <t>安葬</t>
+  </si>
+  <si>
+    <t>上梁</t>
+  </si>
+  <si>
+    <t>立券</t>
+  </si>
+  <si>
+    <t>移徙</t>
+  </si>
+  <si>
+    <t>穿井</t>
+  </si>
+  <si>
+    <t>竖柱</t>
+  </si>
+  <si>
+    <t>动土</t>
+  </si>
+  <si>
+    <t>修造</t>
+  </si>
+  <si>
+    <t>解除</t>
+  </si>
+  <si>
+    <t>赴任</t>
+  </si>
+  <si>
+    <t>经络</t>
   </si>
 </sst>
 </file>
@@ -762,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -808,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -822,10 +1145,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -836,10 +1159,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -850,10 +1173,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -864,10 +1187,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -878,13 +1201,387 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
         <v>77</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -923,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -937,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -951,10 +1648,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -962,10 +1659,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -973,10 +1670,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -984,10 +1681,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -995,10 +1692,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1006,10 +1703,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1019,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1049,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1063,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1077,10 +1774,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1088,10 +1785,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1099,10 +1796,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1110,10 +1807,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1121,10 +1818,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1132,10 +1829,194 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1145,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1189,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1203,10 +2084,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1217,10 +2098,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1231,10 +2112,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1245,10 +2126,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1259,10 +2140,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1273,10 +2154,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1287,10 +2168,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1301,10 +2182,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1315,13 +2196,261 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
+      <c r="C23" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1333,10 +2462,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1363,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1377,10 +2506,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1391,10 +2520,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1405,10 +2534,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1419,10 +2548,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1433,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1447,10 +2576,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1461,10 +2590,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1475,10 +2604,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1489,17 +2618,230 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
+      <c r="C33" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" tooltip="查看本句"/>
+    <hyperlink ref="C30" r:id="rId2" tooltip="查看本句"/>
+    <hyperlink ref="C31" r:id="rId3" tooltip="查看本句"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
